--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1013488.967317228</v>
+        <v>1012841.994776045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778174</v>
+        <v>12279284.88778175</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681851</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9039045.187544066</v>
+        <v>9039045.187544068</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24.68690330538632</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="E11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>60.24410049029191</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.565094327417327</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.99210285748816</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087881</v>
+        <v>6.191472723087739</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964397</v>
+        <v>13.45870707964383</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998889</v>
+        <v>31.53932278998874</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362879</v>
+        <v>0.4251038644361453</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938193</v>
+        <v>9.028675106938051</v>
       </c>
       <c r="U13" t="n">
-        <v>67.59134727882466</v>
+        <v>67.59134727882451</v>
       </c>
       <c r="V13" t="n">
-        <v>34.486327106928</v>
+        <v>34.48632710692786</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740438</v>
+        <v>67.64255292740424</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298101</v>
+        <v>7.690335972297959</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.298649907757067</v>
+        <v>0.2986499077569249</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.565094327417313</v>
       </c>
       <c r="U14" t="n">
-        <v>32.9921028574883</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>27.25199763280366</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="W14" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>57.67900616287458</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087881</v>
+        <v>6.191472723087739</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964397</v>
+        <v>13.45870707964383</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998889</v>
+        <v>31.53932278998874</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362879</v>
+        <v>0.4251038644361453</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938193</v>
+        <v>9.028675106938051</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882466</v>
+        <v>67.59134727882451</v>
       </c>
       <c r="V16" t="n">
-        <v>34.486327106928</v>
+        <v>34.48632710692786</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740438</v>
+        <v>67.64255292740424</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298101</v>
+        <v>7.690335972297959</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.298649907757067</v>
+        <v>0.2986499077569249</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521429</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>32.58791875473287</v>
       </c>
       <c r="F20" t="n">
-        <v>56.76374647998625</v>
+        <v>56.76374647998601</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521429</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>20.3314821306148</v>
       </c>
       <c r="Y20" t="n">
-        <v>36.15695475068052</v>
+        <v>36.15695475068122</v>
       </c>
     </row>
     <row r="21">
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.42700853007082</v>
+        <v>30.42700853007085</v>
       </c>
       <c r="V29" t="n">
         <v>107.5181032350907</v>
       </c>
       <c r="W29" t="n">
-        <v>129.5149987131259</v>
+        <v>129.514998713126</v>
       </c>
       <c r="X29" t="n">
-        <v>149.8464808437413</v>
+        <v>149.8464808437408</v>
       </c>
       <c r="Y29" t="n">
         <v>165.6719534638072</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.626378395670398</v>
+        <v>3.626378395670427</v>
       </c>
       <c r="V30" t="n">
-        <v>10.89361275222649</v>
+        <v>10.89361275222652</v>
       </c>
       <c r="W30" t="n">
-        <v>28.9742284625714</v>
+        <v>28.97422846257143</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520711</v>
+        <v>6.463580779520739</v>
       </c>
       <c r="U31" t="n">
-        <v>65.02625295140717</v>
+        <v>65.0262529514072</v>
       </c>
       <c r="V31" t="n">
-        <v>31.92123277951052</v>
+        <v>31.92123277951055</v>
       </c>
       <c r="W31" t="n">
-        <v>65.0774585999869</v>
+        <v>65.07745859998693</v>
       </c>
       <c r="X31" t="n">
-        <v>5.125241644880617</v>
+        <v>5.125241644880646</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325528988</v>
+        <v>8.307410325528991</v>
       </c>
       <c r="V35" t="n">
         <v>85.39850503054888</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325528988</v>
+        <v>8.307410325528991</v>
       </c>
       <c r="V38" t="n">
         <v>85.39850503054888</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.5001989138252</v>
+        <v>143.6475721559544</v>
       </c>
       <c r="C11" t="n">
-        <v>204.5001989138252</v>
+        <v>74.55966711750001</v>
       </c>
       <c r="D11" t="n">
-        <v>204.5001989138252</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E11" t="n">
-        <v>135.4122938753707</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F11" t="n">
-        <v>74.55966711750006</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G11" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H11" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439185</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439185</v>
+        <v>73.18481780723477</v>
       </c>
       <c r="K11" t="n">
-        <v>35.56706215439185</v>
+        <v>115.6533719784214</v>
       </c>
       <c r="L11" t="n">
-        <v>35.56706215439185</v>
+        <v>115.6533719784214</v>
       </c>
       <c r="M11" t="n">
-        <v>103.2801178825811</v>
+        <v>183.3664277066106</v>
       </c>
       <c r="N11" t="n">
-        <v>149.3901187608438</v>
+        <v>183.3664277066106</v>
       </c>
       <c r="O11" t="n">
-        <v>217.103174489033</v>
+        <v>251.0794834347998</v>
       </c>
       <c r="P11" t="n">
-        <v>273.5881039522797</v>
+        <v>251.0794834347998</v>
       </c>
       <c r="Q11" t="n">
-        <v>273.5881039522797</v>
+        <v>251.0794834347998</v>
       </c>
       <c r="R11" t="n">
-        <v>273.5881039522797</v>
+        <v>251.0794834347998</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811508</v>
       </c>
       <c r="U11" t="n">
-        <v>273.5881039522797</v>
+        <v>237.6717431594456</v>
       </c>
       <c r="V11" t="n">
-        <v>273.5881039522797</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="W11" t="n">
-        <v>273.5881039522797</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="X11" t="n">
-        <v>273.5881039522797</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.5001989138252</v>
+        <v>168.5838381209911</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N12" t="n">
-        <v>57.17833035452109</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O12" t="n">
-        <v>57.17833035452109</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291717</v>
+        <v>50.92431750291688</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711517</v>
+        <v>37.32966388711503</v>
       </c>
       <c r="W12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C13" t="n">
-        <v>56.07409839756632</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D13" t="n">
-        <v>56.07409839756632</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E13" t="n">
-        <v>56.07409839756632</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F13" t="n">
-        <v>56.07409839756632</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G13" t="n">
-        <v>56.07409839756632</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H13" t="n">
-        <v>56.07409839756632</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I13" t="n">
-        <v>123.7871541257555</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J13" t="n">
-        <v>123.7871541257555</v>
+        <v>59.09917806164268</v>
       </c>
       <c r="K13" t="n">
-        <v>126.8122337898328</v>
+        <v>59.09917806164268</v>
       </c>
       <c r="L13" t="n">
-        <v>126.8122337898328</v>
+        <v>59.09917806164268</v>
       </c>
       <c r="M13" t="n">
-        <v>126.8122337898328</v>
+        <v>126.8122337898319</v>
       </c>
       <c r="N13" t="n">
-        <v>126.8122337898328</v>
+        <v>194.525289518021</v>
       </c>
       <c r="O13" t="n">
-        <v>126.8122337898328</v>
+        <v>194.525289518021</v>
       </c>
       <c r="P13" t="n">
-        <v>194.525289518022</v>
+        <v>194.525289518021</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.525289518022</v>
+        <v>194.525289518021</v>
       </c>
       <c r="R13" t="n">
-        <v>194.525289518022</v>
+        <v>194.525289518021</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751571</v>
+        <v>194.0958916751562</v>
       </c>
       <c r="T13" t="n">
-        <v>184.976017829765</v>
+        <v>184.9760178297643</v>
       </c>
       <c r="U13" t="n">
-        <v>116.701929669336</v>
+        <v>116.7019296693355</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395422</v>
+        <v>81.8672558239538</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617203</v>
+        <v>13.54144478617173</v>
       </c>
       <c r="X13" t="n">
-        <v>5.77342865253758</v>
+        <v>5.773428652537433</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.6475721559545</v>
+        <v>74.55966711750001</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6475721559545</v>
+        <v>74.55966711750001</v>
       </c>
       <c r="D14" t="n">
-        <v>143.6475721559545</v>
+        <v>74.55966711750001</v>
       </c>
       <c r="E14" t="n">
-        <v>74.55966711750006</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F14" t="n">
-        <v>74.55966711750006</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G14" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H14" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I14" t="n">
-        <v>19.95484996426421</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J14" t="n">
-        <v>87.66790569245343</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K14" t="n">
-        <v>147.5891768727273</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L14" t="n">
-        <v>205.8750482240904</v>
+        <v>21.14041304006443</v>
       </c>
       <c r="M14" t="n">
-        <v>273.5881039522797</v>
+        <v>88.85346876825361</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5881039522797</v>
+        <v>156.5665244964428</v>
       </c>
       <c r="O14" t="n">
-        <v>273.5881039522797</v>
+        <v>224.279580224632</v>
       </c>
       <c r="P14" t="n">
-        <v>273.5881039522797</v>
+        <v>224.279580224632</v>
       </c>
       <c r="Q14" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="R14" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="T14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811508</v>
       </c>
       <c r="U14" t="n">
-        <v>240.2627475305743</v>
+        <v>270.9970995811508</v>
       </c>
       <c r="V14" t="n">
-        <v>212.735477194409</v>
+        <v>201.9091945426964</v>
       </c>
       <c r="W14" t="n">
-        <v>143.6475721559545</v>
+        <v>132.821289504242</v>
       </c>
       <c r="X14" t="n">
-        <v>143.6475721559545</v>
+        <v>74.55966711750001</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.6475721559545</v>
+        <v>74.55966711750001</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K15" t="n">
-        <v>57.17833035452109</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L15" t="n">
-        <v>57.17833035452109</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="N15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="O15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452109</v>
+        <v>57.17833035452065</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291717</v>
+        <v>50.92431750291688</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711517</v>
+        <v>37.32966388711503</v>
       </c>
       <c r="W15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.53457651330316</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C16" t="n">
-        <v>84.53457651330316</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D16" t="n">
-        <v>84.53457651330316</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E16" t="n">
-        <v>84.53457651330316</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F16" t="n">
-        <v>84.53457651330316</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G16" t="n">
-        <v>84.53457651330316</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H16" t="n">
-        <v>84.53457651330316</v>
+        <v>63.47835070572667</v>
       </c>
       <c r="I16" t="n">
-        <v>84.53457651330316</v>
+        <v>63.47835070572667</v>
       </c>
       <c r="J16" t="n">
-        <v>138.1619924959012</v>
+        <v>63.47835070572667</v>
       </c>
       <c r="K16" t="n">
-        <v>138.1619924959012</v>
+        <v>126.8122337898319</v>
       </c>
       <c r="L16" t="n">
-        <v>138.1619924959012</v>
+        <v>126.8122337898319</v>
       </c>
       <c r="M16" t="n">
-        <v>205.8750482240904</v>
+        <v>126.8122337898319</v>
       </c>
       <c r="N16" t="n">
-        <v>205.8750482240904</v>
+        <v>126.8122337898319</v>
       </c>
       <c r="O16" t="n">
-        <v>273.5881039522797</v>
+        <v>194.525289518021</v>
       </c>
       <c r="P16" t="n">
-        <v>273.5881039522797</v>
+        <v>194.525289518021</v>
       </c>
       <c r="Q16" t="n">
-        <v>273.5881039522797</v>
+        <v>194.525289518021</v>
       </c>
       <c r="R16" t="n">
-        <v>273.5881039522797</v>
+        <v>194.525289518021</v>
       </c>
       <c r="S16" t="n">
-        <v>273.1587061094147</v>
+        <v>194.0958916751562</v>
       </c>
       <c r="T16" t="n">
-        <v>264.0388322640226</v>
+        <v>184.9760178297643</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7647441035936</v>
+        <v>116.7019296693355</v>
       </c>
       <c r="V16" t="n">
-        <v>160.9300702582118</v>
+        <v>81.8672558239538</v>
       </c>
       <c r="W16" t="n">
-        <v>92.6042592204296</v>
+        <v>13.54144478617173</v>
       </c>
       <c r="X16" t="n">
-        <v>84.83624308679515</v>
+        <v>5.773428652537433</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.53457651330316</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278993</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3863781436691</v>
+        <v>166.3863781436689</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345338</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832886</v>
+        <v>127.3333129832884</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673682</v>
+        <v>69.9961953267368</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H17" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I17" t="n">
-        <v>70.44893676771201</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J17" t="n">
-        <v>70.44893676771201</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K17" t="n">
-        <v>70.44893676771201</v>
+        <v>48.67201024445706</v>
       </c>
       <c r="L17" t="n">
-        <v>70.44893676771201</v>
+        <v>116.3850659726462</v>
       </c>
       <c r="M17" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726462</v>
       </c>
       <c r="N17" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726462</v>
       </c>
       <c r="O17" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726462</v>
       </c>
       <c r="P17" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726462</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726462</v>
       </c>
       <c r="R17" t="n">
-        <v>138.1619924959012</v>
+        <v>184.0981217008354</v>
       </c>
       <c r="S17" t="n">
-        <v>138.1619924959012</v>
+        <v>184.0981217008354</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8750482240905</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="U17" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="V17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="W17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152951</v>
+        <v>253.0512533152949</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994553</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="R18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="S18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="T18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="U18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="V18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="W18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="R19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="S19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="T19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="U19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="V19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="W19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278995</v>
+        <v>183.0075687278992</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436692</v>
+        <v>166.3863781436688</v>
       </c>
       <c r="D20" t="n">
-        <v>160.250402634534</v>
+        <v>160.2504026345337</v>
       </c>
       <c r="E20" t="n">
-        <v>127.3333129832886</v>
+        <v>127.3333129832883</v>
       </c>
       <c r="F20" t="n">
-        <v>69.99619532673677</v>
+        <v>69.9961953267368</v>
       </c>
       <c r="G20" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H20" t="n">
         <v>22.25055491761735</v>
@@ -5753,49 +5753,49 @@
         <v>22.25055491761735</v>
       </c>
       <c r="K20" t="n">
-        <v>22.25055491761735</v>
+        <v>48.67201024445706</v>
       </c>
       <c r="L20" t="n">
-        <v>70.44893676771203</v>
+        <v>48.67201024445706</v>
       </c>
       <c r="M20" t="n">
-        <v>138.1619924959012</v>
+        <v>48.67201024445706</v>
       </c>
       <c r="N20" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726462</v>
       </c>
       <c r="O20" t="n">
-        <v>205.8750482240904</v>
+        <v>184.0981217008354</v>
       </c>
       <c r="P20" t="n">
-        <v>205.8750482240904</v>
+        <v>184.0981217008354</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.8750482240904</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="R20" t="n">
-        <v>205.8750482240904</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8750482240904</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="T20" t="n">
-        <v>205.8750482240904</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="U20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="V20" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152951</v>
+        <v>253.0512533152948</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994552</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="R21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="S21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="T21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="U21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="V21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="W21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045593</v>
+        <v>5.47176207904559</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0075687278995</v>
+        <v>183.0075687278996</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3863781436691</v>
+        <v>166.3863781436692</v>
       </c>
       <c r="D23" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345341</v>
       </c>
       <c r="E23" t="n">
-        <v>127.3333129832885</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F23" t="n">
         <v>69.9961953267368</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="H23" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="I23" t="n">
-        <v>89.96361064580657</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="J23" t="n">
-        <v>89.96361064580657</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="K23" t="n">
-        <v>157.6766663739958</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="L23" t="n">
-        <v>157.6766663739958</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="M23" t="n">
-        <v>157.6766663739958</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="N23" t="n">
-        <v>157.6766663739958</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="O23" t="n">
-        <v>157.6766663739958</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="P23" t="n">
-        <v>157.6766663739958</v>
+        <v>73.18481780723478</v>
       </c>
       <c r="Q23" t="n">
-        <v>157.6766663739958</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="R23" t="n">
-        <v>157.6766663739958</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="S23" t="n">
-        <v>157.6766663739958</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="T23" t="n">
-        <v>225.389722102185</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="U23" t="n">
-        <v>251.8111774290248</v>
+        <v>251.8111774290246</v>
       </c>
       <c r="V23" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522795</v>
       </c>
       <c r="W23" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="X23" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152953</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994554</v>
+        <v>216.5290767994557</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045591</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>980.0203689923728</v>
       </c>
       <c r="C26" t="n">
-        <v>832.5759473847833</v>
+        <v>832.575947384783</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522883</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776834</v>
       </c>
       <c r="F26" t="n">
-        <v>343.7160714977722</v>
+        <v>343.716071497772</v>
       </c>
       <c r="G26" t="n">
         <v>148.3684072267213</v>
@@ -6227,25 +6227,25 @@
         <v>104.0764446497857</v>
       </c>
       <c r="K26" t="n">
-        <v>500.2772759974741</v>
+        <v>166.5371592142029</v>
       </c>
       <c r="L26" t="n">
-        <v>868.7654303505685</v>
+        <v>227.3624739497093</v>
       </c>
       <c r="M26" t="n">
-        <v>942.6652962823457</v>
+        <v>414.6874796503157</v>
       </c>
       <c r="N26" t="n">
-        <v>1307.705375072639</v>
+        <v>843.6624800983784</v>
       </c>
       <c r="O26" t="n">
-        <v>1378.712406798437</v>
+        <v>1272.637480546441</v>
       </c>
       <c r="P26" t="n">
-        <v>1437.736779645827</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q26" t="n">
-        <v>1708.184261141055</v>
+        <v>1602.109334889059</v>
       </c>
       <c r="R26" t="n">
         <v>1708.184261141055</v>
@@ -6303,28 +6303,28 @@
         <v>34.66464650085356</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R27" t="n">
         <v>78.59820166294284</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G28" t="n">
-        <v>36.90842647631735</v>
+        <v>87.45674017754644</v>
       </c>
       <c r="H28" t="n">
-        <v>97.45445848714157</v>
+        <v>87.45674017754644</v>
       </c>
       <c r="I28" t="n">
-        <v>97.45445848714157</v>
+        <v>87.45674017754644</v>
       </c>
       <c r="J28" t="n">
-        <v>97.45445848714157</v>
+        <v>87.45674017754644</v>
       </c>
       <c r="K28" t="n">
-        <v>97.45445848714157</v>
+        <v>87.45674017754644</v>
       </c>
       <c r="L28" t="n">
-        <v>97.45445848714157</v>
+        <v>87.45674017754644</v>
       </c>
       <c r="M28" t="n">
-        <v>97.45445848714157</v>
+        <v>87.45674017754644</v>
       </c>
       <c r="N28" t="n">
-        <v>97.45445848714157</v>
+        <v>87.45674017754644</v>
       </c>
       <c r="O28" t="n">
-        <v>153.9896676142813</v>
+        <v>200.5774366512518</v>
       </c>
       <c r="P28" t="n">
-        <v>153.9896676142813</v>
+        <v>207.913497109478</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.9896676142813</v>
+        <v>207.913497109478</v>
       </c>
       <c r="R28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="S28" t="n">
         <v>210.0320876678294</v>
@@ -6427,7 +6427,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.90842647631735</v>
+        <v>34.66464650085356</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923727</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847828</v>
+        <v>832.575947384783</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522881</v>
+        <v>695.6167408522883</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776833</v>
+        <v>531.8764201776834</v>
       </c>
       <c r="F29" t="n">
         <v>343.716071497772</v>
@@ -6458,28 +6458,28 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034312</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J29" t="n">
-        <v>322.8814117543401</v>
+        <v>116.1447933136834</v>
       </c>
       <c r="K29" t="n">
-        <v>322.8814117543401</v>
+        <v>178.6055078781006</v>
       </c>
       <c r="L29" t="n">
-        <v>389.0130627843871</v>
+        <v>607.5805083261633</v>
       </c>
       <c r="M29" t="n">
-        <v>817.9880632324499</v>
+        <v>607.5805083261633</v>
       </c>
       <c r="N29" t="n">
-        <v>1246.963063680513</v>
+        <v>935.6891048697594</v>
       </c>
       <c r="O29" t="n">
-        <v>1491.236994929879</v>
+        <v>1211.761012108311</v>
       </c>
       <c r="P29" t="n">
-        <v>1550.261367777269</v>
+        <v>1602.109334889059</v>
       </c>
       <c r="Q29" t="n">
         <v>1602.109334889059</v>
@@ -6497,7 +6497,7 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V29" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W29" t="n">
         <v>1463.070597286832</v>
@@ -6519,64 +6519,64 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O30" t="n">
-        <v>78.59820166294276</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P30" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="S30" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="T30" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="U30" t="n">
-        <v>74.9351931824676</v>
+        <v>74.93519318246766</v>
       </c>
       <c r="V30" t="n">
-        <v>63.93154393779437</v>
+        <v>63.9315439377944</v>
       </c>
       <c r="W30" t="n">
         <v>34.66464650085356</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.90842647631737</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>36.90842647631737</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D31" t="n">
-        <v>36.90842647631737</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E31" t="n">
-        <v>36.90842647631737</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F31" t="n">
-        <v>36.90842647631737</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G31" t="n">
-        <v>89.70052015301027</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H31" t="n">
-        <v>89.70052015301027</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I31" t="n">
-        <v>89.70052015301027</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J31" t="n">
-        <v>199.9090033484367</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K31" t="n">
-        <v>210.0320876678292</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L31" t="n">
-        <v>210.0320876678292</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M31" t="n">
-        <v>210.0320876678292</v>
+        <v>40.86897114057594</v>
       </c>
       <c r="N31" t="n">
-        <v>210.0320876678292</v>
+        <v>40.86897114057594</v>
       </c>
       <c r="O31" t="n">
-        <v>210.0320876678292</v>
+        <v>153.9896676142813</v>
       </c>
       <c r="P31" t="n">
-        <v>210.0320876678292</v>
+        <v>153.9896676142813</v>
       </c>
       <c r="Q31" t="n">
-        <v>210.0320876678292</v>
+        <v>153.9896676142813</v>
       </c>
       <c r="R31" t="n">
-        <v>210.0320876678292</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="S31" t="n">
-        <v>210.0320876678292</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="T31" t="n">
-        <v>203.5032181935659</v>
+        <v>203.503218193566</v>
       </c>
       <c r="U31" t="n">
-        <v>137.8201344042657</v>
+        <v>137.8201344042658</v>
       </c>
       <c r="V31" t="n">
         <v>105.5764649300127</v>
       </c>
       <c r="W31" t="n">
-        <v>39.84165826335923</v>
+        <v>39.84165826335926</v>
       </c>
       <c r="X31" t="n">
         <v>34.66464650085356</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.90842647631737</v>
+        <v>34.66464650085356</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C32" t="n">
         <v>832.5759473847833</v>
@@ -6683,7 +6683,7 @@
         <v>695.6167408522886</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776835</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F32" t="n">
         <v>343.7160714977722</v>
@@ -6695,28 +6695,28 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>67.29938996034309</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J32" t="n">
-        <v>322.8814117543401</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K32" t="n">
-        <v>500.2772759974742</v>
+        <v>430.865477848542</v>
       </c>
       <c r="L32" t="n">
-        <v>561.1025907329806</v>
+        <v>430.865477848542</v>
       </c>
       <c r="M32" t="n">
-        <v>635.0024566647578</v>
+        <v>859.8404782966048</v>
       </c>
       <c r="N32" t="n">
-        <v>1063.977457112821</v>
+        <v>859.8404782966048</v>
       </c>
       <c r="O32" t="n">
-        <v>1134.984488838618</v>
+        <v>1227.574670897743</v>
       </c>
       <c r="P32" t="n">
-        <v>1399.323479295054</v>
+        <v>1617.922993678492</v>
       </c>
       <c r="Q32" t="n">
         <v>1669.770960790283</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R33" t="n">
         <v>78.59820166294284</v>
@@ -6853,22 +6853,22 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I34" t="n">
-        <v>107.1976275452858</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J34" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K34" t="n">
-        <v>210.0320876678294</v>
+        <v>96.91139119412402</v>
       </c>
       <c r="L34" t="n">
-        <v>210.0320876678294</v>
+        <v>96.91139119412402</v>
       </c>
       <c r="M34" t="n">
-        <v>210.0320876678294</v>
+        <v>96.91139119412402</v>
       </c>
       <c r="N34" t="n">
-        <v>210.0320876678294</v>
+        <v>96.91139119412402</v>
       </c>
       <c r="O34" t="n">
         <v>210.0320876678294</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767097</v>
+        <v>840.4904359767094</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585562</v>
+        <v>715.3890428585555</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154977</v>
+        <v>600.7728648154971</v>
       </c>
       <c r="E35" t="n">
-        <v>459.375572630329</v>
+        <v>459.3755726303284</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398538</v>
+        <v>293.5582524398533</v>
       </c>
       <c r="G35" t="n">
         <v>120.5536166582395</v>
@@ -6932,40 +6932,40 @@
         <v>29.19288442180795</v>
       </c>
       <c r="I35" t="n">
-        <v>29.19288442180795</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J35" t="n">
-        <v>132.5714334571342</v>
+        <v>187.1045791391202</v>
       </c>
       <c r="K35" t="n">
-        <v>493.8333781770076</v>
+        <v>271.4636959260338</v>
       </c>
       <c r="L35" t="n">
-        <v>493.8333781770076</v>
+        <v>385.6329904253698</v>
       </c>
       <c r="M35" t="n">
-        <v>589.6316463312813</v>
+        <v>746.8949351452432</v>
       </c>
       <c r="N35" t="n">
-        <v>950.8935910511548</v>
+        <v>1108.156879865116</v>
       </c>
       <c r="O35" t="n">
-        <v>1043.799024999449</v>
+        <v>1108.156879865116</v>
       </c>
       <c r="P35" t="n">
-        <v>1303.687746960345</v>
+        <v>1189.079654935003</v>
       </c>
       <c r="Q35" t="n">
-        <v>1377.434116294632</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R35" t="n">
-        <v>1437.745818867901</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S35" t="n">
         <v>1437.745818867901</v>
       </c>
       <c r="T35" t="n">
-        <v>1459.644221090398</v>
+        <v>1459.644221090397</v>
       </c>
       <c r="U35" t="n">
         <v>1451.252897529257</v>
@@ -6980,7 +6980,7 @@
         <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.4921465821891</v>
+        <v>982.4921465821888</v>
       </c>
     </row>
     <row r="36">
@@ -7017,40 +7017,40 @@
         <v>29.19288442180795</v>
       </c>
       <c r="K36" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="L36" t="n">
-        <v>29.19288442180795</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="M36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="N36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="W36" t="n">
         <v>29.19288442180795</v>
@@ -7084,40 +7084,40 @@
         <v>29.19288442180795</v>
       </c>
       <c r="G37" t="n">
-        <v>103.8833803209972</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H37" t="n">
-        <v>103.8833803209972</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I37" t="n">
-        <v>103.8833803209972</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J37" t="n">
-        <v>103.8833803209972</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K37" t="n">
-        <v>103.8833803209972</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L37" t="n">
-        <v>103.8833803209972</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M37" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N37" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O37" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P37" t="n">
-        <v>125.825358883706</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.825358883706</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="R37" t="n">
-        <v>125.825358883706</v>
+        <v>101.8083661028582</v>
       </c>
       <c r="S37" t="n">
         <v>125.825358883706</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.49043597671</v>
+        <v>840.4904359767098</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585563</v>
+        <v>715.3890428585561</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154978</v>
+        <v>600.7728648154975</v>
       </c>
       <c r="E38" t="n">
-        <v>459.375572630329</v>
+        <v>459.3755726303289</v>
       </c>
       <c r="F38" t="n">
         <v>293.5582524398537</v>
@@ -7169,31 +7169,31 @@
         <v>29.19288442180795</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379393</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J38" t="n">
-        <v>361.2064541202873</v>
+        <v>306.6733084383013</v>
       </c>
       <c r="K38" t="n">
-        <v>722.4683988401607</v>
+        <v>667.9352531581746</v>
       </c>
       <c r="L38" t="n">
-        <v>801.8108156308268</v>
+        <v>750.6589701161774</v>
       </c>
       <c r="M38" t="n">
-        <v>897.6090837851006</v>
+        <v>846.4572382704512</v>
       </c>
       <c r="N38" t="n">
-        <v>995.5610990781416</v>
+        <v>1207.719182990324</v>
       </c>
       <c r="O38" t="n">
-        <v>1356.823043798015</v>
+        <v>1300.624616938619</v>
       </c>
       <c r="P38" t="n">
-        <v>1437.745818867901</v>
+        <v>1381.547392008505</v>
       </c>
       <c r="Q38" t="n">
-        <v>1437.745818867901</v>
+        <v>1381.547392008505</v>
       </c>
       <c r="R38" t="n">
         <v>1437.745818867901</v>
@@ -7202,7 +7202,7 @@
         <v>1437.745818867901</v>
       </c>
       <c r="T38" t="n">
-        <v>1459.644221090398</v>
+        <v>1459.644221090397</v>
       </c>
       <c r="U38" t="n">
         <v>1451.252897529257</v>
@@ -7217,7 +7217,7 @@
         <v>1127.494525631952</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821894</v>
+        <v>982.4921465821892</v>
       </c>
     </row>
     <row r="39">
@@ -7260,34 +7260,34 @@
         <v>29.19288442180795</v>
       </c>
       <c r="M39" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N39" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O39" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P39" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="W39" t="n">
         <v>29.19288442180795</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C40" t="n">
-        <v>101.8083661028582</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D40" t="n">
-        <v>101.8083661028582</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E40" t="n">
-        <v>101.8083661028582</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F40" t="n">
-        <v>101.8083661028582</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G40" t="n">
         <v>101.8083661028582</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.4904359767104</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585565</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D41" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303293</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398539</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G41" t="n">
         <v>120.5536166582395</v>
@@ -7406,40 +7406,40 @@
         <v>29.19288442180795</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379393</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J41" t="n">
-        <v>361.2064541202873</v>
+        <v>306.6733084383013</v>
       </c>
       <c r="K41" t="n">
-        <v>445.5655709072009</v>
+        <v>391.032425225215</v>
       </c>
       <c r="L41" t="n">
-        <v>528.2892878652037</v>
+        <v>391.032425225215</v>
       </c>
       <c r="M41" t="n">
-        <v>543.7949026994617</v>
+        <v>752.2943699450884</v>
       </c>
       <c r="N41" t="n">
-        <v>905.0568474193351</v>
+        <v>850.2463852381295</v>
       </c>
       <c r="O41" t="n">
-        <v>997.9622813676294</v>
+        <v>891.9446348930746</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.741280836226</v>
+        <v>1085.088232576907</v>
       </c>
       <c r="Q41" t="n">
-        <v>1330.487650170513</v>
+        <v>1377.434116294632</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.799352743782</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="S41" t="n">
         <v>1437.745818867901</v>
       </c>
       <c r="T41" t="n">
-        <v>1459.644221090398</v>
+        <v>1459.644221090397</v>
       </c>
       <c r="U41" t="n">
         <v>1451.252897529257</v>
@@ -7448,13 +7448,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W41" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X41" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821898</v>
+        <v>982.4921465821895</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="W42" t="n">
         <v>29.19288442180795</v>
@@ -7533,7 +7533,7 @@
         <v>29.19288442180795</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="43">
@@ -7570,13 +7570,13 @@
         <v>29.19288442180795</v>
       </c>
       <c r="K43" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L43" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M43" t="n">
-        <v>125.825358883706</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N43" t="n">
         <v>125.825358883706</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767103</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585564</v>
+        <v>715.3890428585561</v>
       </c>
       <c r="D44" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154975</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303291</v>
+        <v>459.3755726303289</v>
       </c>
       <c r="F44" t="n">
-        <v>293.558252439854</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G44" t="n">
         <v>120.5536166582395</v>
@@ -7649,25 +7649,25 @@
         <v>187.1045791391202</v>
       </c>
       <c r="K44" t="n">
-        <v>548.3665238589936</v>
+        <v>271.4636959260338</v>
       </c>
       <c r="L44" t="n">
-        <v>797.5273208233112</v>
+        <v>354.1874128840367</v>
       </c>
       <c r="M44" t="n">
-        <v>797.5273208233112</v>
+        <v>354.1874128840367</v>
       </c>
       <c r="N44" t="n">
-        <v>895.4793361163523</v>
+        <v>644.2860903578892</v>
       </c>
       <c r="O44" t="n">
-        <v>895.4793361163523</v>
+        <v>737.1915243061835</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.741280836226</v>
+        <v>1098.453469026057</v>
       </c>
       <c r="Q44" t="n">
-        <v>1330.487650170513</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="R44" t="n">
         <v>1390.799352743782</v>
@@ -7676,7 +7676,7 @@
         <v>1437.745818867901</v>
       </c>
       <c r="T44" t="n">
-        <v>1459.644221090398</v>
+        <v>1459.644221090397</v>
       </c>
       <c r="U44" t="n">
         <v>1451.252897529257</v>
@@ -7685,13 +7685,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X44" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821897</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="45">
@@ -7749,19 +7749,19 @@
         <v>29.19288442180795</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931258</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931258</v>
+        <v>36.11675336931257</v>
       </c>
       <c r="W45" t="n">
         <v>29.19288442180795</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N46" t="n">
-        <v>91.61339917308175</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O46" t="n">
-        <v>91.61339917308175</v>
+        <v>125.825358883706</v>
       </c>
       <c r="P46" t="n">
-        <v>91.61339917308175</v>
+        <v>125.825358883706</v>
       </c>
       <c r="Q46" t="n">
         <v>125.825358883706</v>
@@ -8693,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39.8922397318308</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>79.65527369999415</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>168.6434343361249</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>144.19328690304</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.478657711440732</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.72106128758008</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9088,13 +9088,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>310.7705450682707</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>114.5708482513425</v>
       </c>
       <c r="N26" t="n">
-        <v>454.8408013884635</v>
+        <v>356.4862498762809</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>361.5838067901665</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9954,22 +9954,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.34002595346595</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>78.97517211329256</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10033,25 +10033,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>117.5279124858208</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>119.6046733668994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.359935651051103</v>
+        <v>371.8683694066225</v>
       </c>
       <c r="M29" t="n">
-        <v>467.4940748325458</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N29" t="n">
-        <v>356.4862498762809</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O29" t="n">
-        <v>396.0321885132552</v>
+        <v>207.1362378916704</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.8604797789567</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K32" t="n">
         <v>337.1112290740114</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>358.661752036652</v>
       </c>
       <c r="N32" t="n">
-        <v>356.4862498762809</v>
+        <v>114.3499486942088</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>299.7244049245865</v>
       </c>
       <c r="P32" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>56.17807754153047</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,25 +10504,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>279.6998261949089</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>31.93604029974493</v>
+        <v>208.5952648754873</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>268.1451278440401</v>
       </c>
       <c r="N35" t="n">
-        <v>265.969625683669</v>
+        <v>265.9696256836689</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>180.7736837282925</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10756,13 +10756,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>279.6998261949089</v>
+        <v>279.6998261949088</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>265.9696256836689</v>
       </c>
       <c r="O38" t="n">
-        <v>271.0671825975547</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>42.32661775169102</v>
       </c>
       <c r="R38" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>5.686444911291545</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11066,19 +11066,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>268.1451278440401</v>
       </c>
       <c r="N41" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>179.6527519178889</v>
+        <v>113.354366276713</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11230,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>279.6998261949089</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>168.1182626326413</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>38.59243229804136</v>
+        <v>43.94295014040244</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>194.0875375563751</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>283.1708784343303</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11452,16 +11452,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.2663860313839</v>
+        <v>140.5794827259974</v>
       </c>
       <c r="C11" t="n">
-        <v>148.5350717189315</v>
+        <v>80.13804573086146</v>
       </c>
       <c r="D11" t="n">
-        <v>138.1547087945872</v>
+        <v>69.75768280651722</v>
       </c>
       <c r="E11" t="n">
-        <v>96.27098580720639</v>
+        <v>164.6680117952762</v>
       </c>
       <c r="F11" t="n">
-        <v>128.5997390302378</v>
+        <v>188.8438395205295</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5622559676878</v>
+        <v>195.9592819557575</v>
       </c>
       <c r="H11" t="n">
-        <v>115.1318174460265</v>
+        <v>115.1318174460264</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417469</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748831</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625082</v>
+        <v>41.68617157443818</v>
       </c>
       <c r="W11" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="X11" t="n">
-        <v>152.4115751711582</v>
+        <v>152.4115751711581</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.84002180315474</v>
+        <v>168.2370477912245</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.2663860313839</v>
+        <v>165.2663860313837</v>
       </c>
       <c r="C14" t="n">
-        <v>148.5350717189315</v>
+        <v>148.5350717189313</v>
       </c>
       <c r="D14" t="n">
-        <v>138.1547087945872</v>
+        <v>138.1547087945871</v>
       </c>
       <c r="E14" t="n">
-        <v>96.27098580720639</v>
+        <v>96.27098580720629</v>
       </c>
       <c r="F14" t="n">
-        <v>188.8438395205297</v>
+        <v>188.8438395205295</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5622559676878</v>
+        <v>195.9592819557576</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460265</v>
+        <v>115.1318174460264</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417469</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.99210285748816</v>
       </c>
       <c r="V14" t="n">
-        <v>82.83119992970452</v>
+        <v>41.68617157443818</v>
       </c>
       <c r="W14" t="n">
-        <v>63.68306705247352</v>
+        <v>63.68306705247342</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711582</v>
+        <v>94.73256900828349</v>
       </c>
       <c r="Y14" t="n">
-        <v>168.2370477912247</v>
+        <v>168.2370477912245</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.034373084024992e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675514.500113224</v>
+        <v>675514.5001132239</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675514.5001132239</v>
+        <v>675514.500113224</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773223.4381841894</v>
+        <v>773223.4381841895</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854165.6188680175</v>
+        <v>854165.6188680176</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815100.5057157315</v>
+        <v>815100.5057157314</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815100.5057157314</v>
+        <v>815100.5057157315</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649725.1022045922</v>
+        <v>649725.1022045927</v>
       </c>
       <c r="C2" t="n">
         <v>649725.1022045925</v>
@@ -26320,37 +26320,37 @@
         <v>649725.1022045925</v>
       </c>
       <c r="E2" t="n">
-        <v>558831.8094960746</v>
+        <v>558831.8094960747</v>
       </c>
       <c r="F2" t="n">
         <v>558831.8094960747</v>
       </c>
       <c r="G2" t="n">
-        <v>651135.5268919495</v>
+        <v>651135.5268919496</v>
       </c>
       <c r="H2" t="n">
-        <v>651135.5268919496</v>
+        <v>651135.5268919498</v>
       </c>
       <c r="I2" t="n">
-        <v>651135.5268919497</v>
+        <v>651135.5268919498</v>
       </c>
       <c r="J2" t="n">
-        <v>651135.5268919489</v>
+        <v>651135.5268919487</v>
       </c>
       <c r="K2" t="n">
         <v>651135.5268919491</v>
       </c>
       <c r="L2" t="n">
-        <v>651135.5268919488</v>
+        <v>651135.5268919492</v>
       </c>
       <c r="M2" t="n">
-        <v>651135.5268919492</v>
+        <v>651135.526891949</v>
       </c>
       <c r="N2" t="n">
         <v>651135.5268919491</v>
       </c>
       <c r="O2" t="n">
-        <v>651135.5268919491</v>
+        <v>651135.5268919495</v>
       </c>
       <c r="P2" t="n">
         <v>651135.5268919492</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039991</v>
+        <v>284205.3843039992</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324346</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>166624.8083432522</v>
+        <v>166624.8083432523</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324346</v>
       </c>
       <c r="M3" t="n">
         <v>17695.67856363349</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750814</v>
+        <v>71148.02019750826</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>361458.6760153741</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.6760153742</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="I4" t="n">
         <v>426193.4292983838</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="K4" t="n">
         <v>434774.7393444277</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24939.02968325744</v>
+        <v>24939.02968325745</v>
       </c>
       <c r="F5" t="n">
-        <v>24939.02968325744</v>
+        <v>24939.02968325745</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152545.3815689006</v>
+        <v>152540.973991753</v>
       </c>
       <c r="C6" t="n">
-        <v>152545.3815689009</v>
+        <v>152540.9739917529</v>
       </c>
       <c r="D6" t="n">
-        <v>152545.3815689009</v>
+        <v>152540.9739917529</v>
       </c>
       <c r="E6" t="n">
-        <v>-111771.2805065561</v>
+        <v>-112059.7296234183</v>
       </c>
       <c r="F6" t="n">
-        <v>172434.1037974432</v>
+        <v>172145.6546805809</v>
       </c>
       <c r="G6" t="n">
-        <v>83235.15213604807</v>
+        <v>83235.15213604836</v>
       </c>
       <c r="H6" t="n">
-        <v>188899.2265684829</v>
+        <v>188899.2265684832</v>
       </c>
       <c r="I6" t="n">
-        <v>188899.226568483</v>
+        <v>188899.2265684832</v>
       </c>
       <c r="J6" t="n">
-        <v>2394.712445425743</v>
+        <v>2394.71244542551</v>
       </c>
       <c r="K6" t="n">
         <v>169019.5207886783</v>
       </c>
       <c r="L6" t="n">
-        <v>63355.44635624305</v>
+        <v>63355.44635624369</v>
       </c>
       <c r="M6" t="n">
-        <v>157334.7112867124</v>
+        <v>157334.7112867121</v>
       </c>
       <c r="N6" t="n">
         <v>175030.3898503457</v>
       </c>
       <c r="O6" t="n">
-        <v>103882.3696528375</v>
+        <v>103882.3696528378</v>
       </c>
       <c r="P6" t="n">
         <v>175030.3898503458</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="F2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="G2" t="n">
         <v>350.5301170005546</v>
@@ -26796,25 +26796,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="F4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="H4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="I4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806988</v>
       </c>
       <c r="J4" t="n">
-        <v>433.3080812606695</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="K4" t="n">
-        <v>433.3080812606695</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="L4" t="n">
         <v>433.3080812606695</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.93502524688532</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="M2" t="n">
         <v>22.11959820454186</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.93502524688532</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405433</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.93502524688532</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="C11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="D11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="E11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="F11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="G11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="H11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="I11" t="n">
-        <v>218.4500239600112</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886106</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K11" t="n">
-        <v>157.9234874142799</v>
+        <v>200.821016880125</v>
       </c>
       <c r="L11" t="n">
-        <v>119.6831667015509</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>214.7658150514811</v>
+        <v>214.765815051481</v>
       </c>
       <c r="N11" t="n">
-        <v>190.7690453659317</v>
+        <v>64.53801320304591</v>
       </c>
       <c r="O11" t="n">
-        <v>217.6878698049957</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P11" t="n">
-        <v>218.4500239600112</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R11" t="n">
         <v>182.2138048017995</v>
       </c>
       <c r="S11" t="n">
-        <v>195.7140436393247</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="T11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="U11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="V11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="W11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="X11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
     </row>
     <row r="12">
@@ -28199,16 +28199,16 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N12" t="n">
-        <v>118.2982863334665</v>
+        <v>66.06942948955188</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P12" t="n">
-        <v>85.1122096929098</v>
+        <v>137.341066536824</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
@@ -28223,13 +28223,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U12" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="V12" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="W12" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28248,7 +28248,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>218.4500239600112</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -28266,28 +28266,28 @@
         <v>159.857510195687</v>
       </c>
       <c r="I13" t="n">
-        <v>216.1465068568801</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J13" t="n">
-        <v>109.6934180900282</v>
+        <v>163.8625251431565</v>
       </c>
       <c r="K13" t="n">
-        <v>105.6283684940919</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>104.1302923698531</v>
+        <v>172.527318357923</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681483</v>
+        <v>162.3128602648847</v>
       </c>
       <c r="O13" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P13" t="n">
-        <v>178.5147763948743</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q13" t="n">
         <v>130.9853613927381</v>
@@ -28296,25 +28296,25 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="U13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="V13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="W13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="X13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="C14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="D14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="E14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="F14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="H14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="I14" t="n">
-        <v>202.6801126568519</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J14" t="n">
-        <v>207.1089656766806</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>218.4500239600112</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
-        <v>218.4500239600112</v>
+        <v>175.402326596027</v>
       </c>
       <c r="M14" t="n">
-        <v>214.7658150514811</v>
+        <v>214.765815051481</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>212.5903128911099</v>
       </c>
       <c r="O14" t="n">
-        <v>149.2908438169257</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P14" t="n">
-        <v>161.3945396537014</v>
+        <v>159.9158819422607</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.9223730485448</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="R14" t="n">
-        <v>182.2138048017995</v>
+        <v>113.8687281338978</v>
       </c>
       <c r="S14" t="n">
         <v>195.7140436393247</v>
       </c>
       <c r="T14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="U14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="V14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="W14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="X14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
     </row>
     <row r="15">
@@ -28430,19 +28430,19 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K15" t="n">
-        <v>148.1372797445715</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L15" t="n">
         <v>83.34002595346595</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175252</v>
+        <v>130.4191539456667</v>
       </c>
       <c r="N15" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P15" t="n">
         <v>85.1122096929098</v>
@@ -28460,13 +28460,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="V15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="W15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28500,28 +28500,28 @@
         <v>167.689771139254</v>
       </c>
       <c r="H16" t="n">
-        <v>159.857510195687</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="I16" t="n">
         <v>147.7494808688102</v>
       </c>
       <c r="J16" t="n">
-        <v>163.8625251431575</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
-        <v>102.5727324697714</v>
+        <v>166.5463517466453</v>
       </c>
       <c r="L16" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>172.527318357923</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O16" t="n">
-        <v>175.148814504079</v>
+        <v>175.1488145040789</v>
       </c>
       <c r="P16" t="n">
         <v>110.1177504068044</v>
@@ -28533,25 +28533,25 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="T16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="U16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="V16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="W16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="X16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600113</v>
       </c>
     </row>
     <row r="17">
@@ -28582,19 +28582,19 @@
         <v>333.5818414060377</v>
       </c>
       <c r="I17" t="n">
-        <v>253.6842407411426</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
         <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
-        <v>157.9234874142799</v>
+        <v>201.5601017227764</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333817</v>
+        <v>227.9724324214516</v>
       </c>
       <c r="M17" t="n">
-        <v>214.7658150514811</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N17" t="n">
         <v>144.19328690304</v>
@@ -28609,7 +28609,7 @@
         <v>168.6434343361249</v>
       </c>
       <c r="R17" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898694</v>
       </c>
       <c r="S17" t="n">
         <v>195.7140436393247</v>
@@ -28618,10 +28618,10 @@
         <v>289.4121442754985</v>
       </c>
       <c r="U17" t="n">
-        <v>319.8391528055694</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -28673,13 +28673,13 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N18" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P18" t="n">
         <v>85.1122096929098</v>
@@ -28755,10 +28755,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O19" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P19" t="n">
         <v>110.1177504068044</v>
@@ -28825,25 +28825,25 @@
         <v>138.7119396886106</v>
       </c>
       <c r="K20" t="n">
-        <v>157.9234874142799</v>
+        <v>184.6118261282594</v>
       </c>
       <c r="L20" t="n">
-        <v>208.2606406253966</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M20" t="n">
-        <v>214.7658150514811</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N20" t="n">
-        <v>144.19328690304</v>
+        <v>212.5903128911099</v>
       </c>
       <c r="O20" t="n">
-        <v>217.6878698049957</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P20" t="n">
         <v>161.3945396537014</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.6434343361249</v>
+        <v>237.0404603241948</v>
       </c>
       <c r="R20" t="n">
         <v>182.2138048017995</v>
@@ -28855,10 +28855,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
-        <v>319.8391528055694</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -28910,13 +28910,13 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N21" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P21" t="n">
         <v>85.1122096929098</v>
@@ -28992,10 +28992,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O22" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P22" t="n">
         <v>110.1177504068044</v>
@@ -29053,16 +29053,16 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H23" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I23" t="n">
-        <v>256.4477569426808</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
         <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
-        <v>226.3205134023498</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L23" t="n">
         <v>159.5754064333817</v>
@@ -29077,22 +29077,22 @@
         <v>149.2908438169257</v>
       </c>
       <c r="P23" t="n">
-        <v>161.3945396537014</v>
+        <v>229.7915656417713</v>
       </c>
       <c r="Q23" t="n">
-        <v>168.6434343361249</v>
+        <v>212.2800486446214</v>
       </c>
       <c r="R23" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898694</v>
       </c>
       <c r="S23" t="n">
         <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754986</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
-        <v>278.130465531479</v>
+        <v>319.8391528055693</v>
       </c>
       <c r="V23" t="n">
         <v>350.5301170005546</v>
@@ -29147,13 +29147,13 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N24" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P24" t="n">
         <v>85.1122096929098</v>
@@ -29229,10 +29229,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O25" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P25" t="n">
         <v>110.1177504068044</v>
@@ -29308,7 +29308,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="N26" t="n">
-        <v>58.07983782800429</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="O26" t="n">
         <v>221.0151182874286</v>
@@ -29320,7 +29320,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="R26" t="n">
-        <v>113.8687281338978</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S26" t="n">
         <v>221.0151182874286</v>
@@ -29375,31 +29375,31 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J27" t="n">
-        <v>145.525937516877</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175252</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P27" t="n">
-        <v>85.1122096929098</v>
+        <v>6.137037579617239</v>
       </c>
       <c r="Q27" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
-        <v>127.2394152081628</v>
+        <v>171.6167436547176</v>
       </c>
       <c r="S27" t="n">
         <v>164.5345187941275</v>
@@ -29445,10 +29445,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.689771139254</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="H28" t="n">
-        <v>221.0151182874286</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I28" t="n">
         <v>147.7494808688102</v>
@@ -29457,10 +29457,10 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>104.1302923698531</v>
@@ -29469,19 +29469,19 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.8580603616047</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987658</v>
       </c>
       <c r="R28" t="n">
+        <v>164.4066131828346</v>
+      </c>
+      <c r="S28" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="S28" t="n">
-        <v>218.8751278244474</v>
       </c>
       <c r="T28" t="n">
         <v>221.0151182874286</v>
@@ -29499,7 +29499,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Y28" t="n">
-        <v>221.0151182874286</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -29530,31 +29530,31 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I29" t="n">
-        <v>221.0151182874286</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="K29" t="n">
-        <v>38.31881404738051</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="L29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="M29" t="n">
-        <v>112.1827954915349</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>20.77531030608769</v>
+      </c>
+      <c r="O29" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q29" t="n">
-        <v>221.0151182874286</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R29" t="n">
         <v>221.0151182874286</v>
@@ -29591,7 +29591,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>215.4029123739557</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -29609,7 +29609,7 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>78.29747578532816</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J30" t="n">
         <v>101.1486090703222</v>
@@ -29621,16 +29621,16 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N30" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P30" t="n">
-        <v>85.1122096929098</v>
+        <v>129.4895381394646</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
@@ -29682,7 +29682,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>221.0151182874286</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H31" t="n">
         <v>159.857510195687</v>
@@ -29691,31 +29691,31 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
-        <v>221.0151182874286</v>
+        <v>74.71172711439591</v>
       </c>
       <c r="K31" t="n">
-        <v>112.7980701661275</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698531</v>
+        <v>110.3972869554313</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R31" t="n">
-        <v>164.4066131828346</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S31" t="n">
         <v>218.8751278244474</v>
@@ -29736,7 +29736,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Y31" t="n">
-        <v>221.0151182874286</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -29767,28 +29767,28 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I32" t="n">
+        <v>188.0507309546109</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="J32" t="n">
-        <v>221.0151182874286</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>221.0151182874286</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="N32" t="n">
-        <v>221.0151182874286</v>
+        <v>29.84333820883122</v>
       </c>
       <c r="O32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="P32" t="n">
-        <v>93.73296442448657</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q32" t="n">
         <v>221.0151182874286</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>209.7494540568997</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -29858,22 +29858,22 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N33" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O33" t="n">
-        <v>26.14567436572067</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P33" t="n">
         <v>85.1122096929098</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R33" t="n">
-        <v>79.89687860438912</v>
+        <v>171.6167436547176</v>
       </c>
       <c r="S33" t="n">
         <v>164.5345187941275</v>
@@ -29925,28 +29925,28 @@
         <v>159.857510195687</v>
       </c>
       <c r="I34" t="n">
+        <v>147.7494808688102</v>
+      </c>
+      <c r="J34" t="n">
+        <v>74.71172711439591</v>
+      </c>
+      <c r="K34" t="n">
+        <v>165.4482321599436</v>
+      </c>
+      <c r="L34" t="n">
+        <v>101.8051034503207</v>
+      </c>
+      <c r="M34" t="n">
+        <v>104.1302923698531</v>
+      </c>
+      <c r="N34" t="n">
+        <v>93.91583427681482</v>
+      </c>
+      <c r="O34" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="J34" t="n">
-        <v>213.5666101330015</v>
-      </c>
-      <c r="K34" t="n">
-        <v>102.5727324697714</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>106.7517885160091</v>
-      </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>130.9853613927381</v>
@@ -30004,7 +30004,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="I35" t="n">
-        <v>188.0507309546109</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J35" t="n">
         <v>243.1347164919705</v>
@@ -30013,7 +30013,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="L35" t="n">
-        <v>127.6393661336368</v>
+        <v>66.3026612541933</v>
       </c>
       <c r="M35" t="n">
         <v>243.1347164919705</v>
@@ -30022,7 +30022,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="O35" t="n">
-        <v>243.1347164919705</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P35" t="n">
         <v>243.1347164919705</v>
@@ -30034,7 +30034,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="S35" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T35" t="n">
         <v>243.1347164919705</v>
@@ -30089,19 +30089,19 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065689</v>
+        <v>102.9022299183383</v>
       </c>
       <c r="L36" t="n">
         <v>83.34002595346595</v>
       </c>
       <c r="M36" t="n">
-        <v>85.18410411943395</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N36" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P36" t="n">
         <v>85.1122096929098</v>
@@ -30156,7 +30156,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>243.1347164919705</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H37" t="n">
         <v>159.857510195687</v>
@@ -30174,25 +30174,25 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>126.29390707966</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068044</v>
+        <v>183.4667218018047</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.02868467987658</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R37" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8751278244474</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T37" t="n">
         <v>227.4786990669493</v>
@@ -30241,7 +30241,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="I38" t="n">
-        <v>243.1347164919705</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J38" t="n">
         <v>243.1347164919705</v>
@@ -30250,7 +30250,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="L38" t="n">
-        <v>239.7192617774889</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="M38" t="n">
         <v>243.1347164919705</v>
@@ -30265,10 +30265,10 @@
         <v>243.1347164919705</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.6434343361249</v>
+        <v>126.3168165844339</v>
       </c>
       <c r="R38" t="n">
-        <v>113.8687281338978</v>
+        <v>238.9798925385632</v>
       </c>
       <c r="S38" t="n">
         <v>195.7140436393247</v>
@@ -30332,13 +30332,13 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M39" t="n">
-        <v>85.18410411943395</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N39" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O39" t="n">
-        <v>76.63730699595961</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P39" t="n">
         <v>85.1122096929098</v>
@@ -30347,7 +30347,7 @@
         <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
-        <v>127.2394152081628</v>
+        <v>79.8968786043891</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
@@ -30359,7 +30359,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W39" t="n">
         <v>243.1347164919705</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>243.1347164919705</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>177.634499324916</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -30393,7 +30393,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.689771139254</v>
+        <v>241.0387425342543</v>
       </c>
       <c r="H40" t="n">
         <v>159.857510195687</v>
@@ -30402,7 +30402,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J40" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
         <v>102.5727324697714</v>
@@ -30414,16 +30414,16 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O40" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987658</v>
       </c>
       <c r="R40" t="n">
         <v>164.4066131828346</v>
@@ -30478,7 +30478,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="I41" t="n">
-        <v>243.1347164919705</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J41" t="n">
         <v>243.1347164919705</v>
@@ -30487,16 +30487,16 @@
         <v>243.1347164919705</v>
       </c>
       <c r="L41" t="n">
+        <v>159.5754064333817</v>
+      </c>
+      <c r="M41" t="n">
         <v>243.1347164919705</v>
       </c>
-      <c r="M41" t="n">
-        <v>162.0310262697323</v>
-      </c>
       <c r="N41" t="n">
-        <v>54.26354078717594</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="O41" t="n">
-        <v>243.1347164919705</v>
+        <v>191.4102879128298</v>
       </c>
       <c r="P41" t="n">
         <v>243.1347164919705</v>
@@ -30508,7 +30508,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="S41" t="n">
-        <v>243.1347164919705</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T41" t="n">
         <v>243.1347164919705</v>
@@ -30569,13 +30569,13 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N42" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P42" t="n">
         <v>85.1122096929098</v>
@@ -30596,7 +30596,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W42" t="n">
         <v>243.1347164919705</v>
@@ -30605,7 +30605,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>210.6649584362675</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -30642,7 +30642,7 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>200.1812925322947</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
         <v>101.8051034503207</v>
@@ -30651,10 +30651,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681483</v>
+        <v>191.5243943393381</v>
       </c>
       <c r="O43" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>110.1177504068044</v>
@@ -30727,13 +30727,13 @@
         <v>243.1347164919705</v>
       </c>
       <c r="M44" t="n">
-        <v>107.7763567653698</v>
+        <v>102.4258389230087</v>
       </c>
       <c r="N44" t="n">
         <v>243.1347164919705</v>
       </c>
       <c r="O44" t="n">
-        <v>149.2908438169257</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P44" t="n">
         <v>243.1347164919705</v>
@@ -30742,7 +30742,7 @@
         <v>243.1347164919705</v>
       </c>
       <c r="R44" t="n">
-        <v>243.1347164919705</v>
+        <v>113.8687281338978</v>
       </c>
       <c r="S44" t="n">
         <v>243.1347164919705</v>
@@ -30806,13 +30806,13 @@
         <v>83.34002595346595</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175251</v>
       </c>
       <c r="N45" t="n">
         <v>66.06942948955188</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P45" t="n">
         <v>85.1122096929098</v>
@@ -30821,7 +30821,7 @@
         <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
-        <v>134.2332222258442</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30833,7 +30833,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W45" t="n">
         <v>243.1347164919705</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>243.1347164919705</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30876,28 +30876,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
-        <v>74.71172711439591</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O46" t="n">
-        <v>106.7517885160091</v>
+        <v>204.3603485785324</v>
       </c>
       <c r="P46" t="n">
         <v>110.1177504068044</v>
       </c>
       <c r="Q46" t="n">
-        <v>165.5428964539747</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R46" t="n">
         <v>164.4066131828346</v>
@@ -31765,7 +31765,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M11" t="n">
         <v>78.21878833317973</v>
@@ -31774,7 +31774,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P11" t="n">
         <v>64.05763120768638</v>
@@ -31789,7 +31789,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U11" t="n">
         <v>0.03563675904496592</v>
@@ -31835,7 +31835,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I12" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J12" t="n">
         <v>22.51807692967788</v>
@@ -31847,13 +31847,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N12" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P12" t="n">
         <v>45.51283753606219</v>
@@ -31865,10 +31865,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U12" t="n">
         <v>0.01568038410218506</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H13" t="n">
         <v>1.776561813229859</v>
@@ -31920,7 +31920,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L13" t="n">
         <v>29.7074559238866</v>
@@ -31932,22 +31932,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R13" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U13" t="n">
         <v>0.01089915222840405</v>
@@ -32002,7 +32002,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M14" t="n">
         <v>78.21878833317973</v>
@@ -32011,7 +32011,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P14" t="n">
         <v>64.05763120768638</v>
@@ -32026,7 +32026,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U14" t="n">
         <v>0.03563675904496592</v>
@@ -32072,7 +32072,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I15" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J15" t="n">
         <v>22.51807692967788</v>
@@ -32084,13 +32084,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N15" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P15" t="n">
         <v>45.51283753606219</v>
@@ -32102,10 +32102,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U15" t="n">
         <v>0.01568038410218506</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H16" t="n">
         <v>1.776561813229859</v>
@@ -32157,7 +32157,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L16" t="n">
         <v>29.7074559238866</v>
@@ -32169,22 +32169,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R16" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U16" t="n">
         <v>0.01089915222840405</v>
@@ -32239,7 +32239,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M17" t="n">
         <v>78.21878833317973</v>
@@ -32248,7 +32248,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P17" t="n">
         <v>64.05763120768638</v>
@@ -32263,7 +32263,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U17" t="n">
         <v>0.03563675904496592</v>
@@ -32309,7 +32309,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I18" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J18" t="n">
         <v>22.51807692967788</v>
@@ -32321,13 +32321,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N18" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P18" t="n">
         <v>45.51283753606219</v>
@@ -32339,10 +32339,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U18" t="n">
         <v>0.01568038410218506</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H19" t="n">
         <v>1.776561813229859</v>
@@ -32394,7 +32394,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L19" t="n">
         <v>29.7074559238866</v>
@@ -32406,22 +32406,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R19" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U19" t="n">
         <v>0.01089915222840405</v>
@@ -32476,7 +32476,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M20" t="n">
         <v>78.21878833317973</v>
@@ -32485,7 +32485,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P20" t="n">
         <v>64.05763120768638</v>
@@ -32500,7 +32500,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U20" t="n">
         <v>0.03563675904496592</v>
@@ -32546,7 +32546,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I21" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J21" t="n">
         <v>22.51807692967788</v>
@@ -32558,13 +32558,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N21" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P21" t="n">
         <v>45.51283753606219</v>
@@ -32576,10 +32576,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U21" t="n">
         <v>0.01568038410218506</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H22" t="n">
         <v>1.776561813229859</v>
@@ -32631,7 +32631,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L22" t="n">
         <v>29.7074559238866</v>
@@ -32643,22 +32643,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R22" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U22" t="n">
         <v>0.01089915222840405</v>
@@ -32713,7 +32713,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M23" t="n">
         <v>78.21878833317973</v>
@@ -32722,7 +32722,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P23" t="n">
         <v>64.05763120768638</v>
@@ -32737,7 +32737,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U23" t="n">
         <v>0.03563675904496592</v>
@@ -32783,7 +32783,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I24" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J24" t="n">
         <v>22.51807692967788</v>
@@ -32795,13 +32795,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N24" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P24" t="n">
         <v>45.51283753606219</v>
@@ -32813,10 +32813,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U24" t="n">
         <v>0.01568038410218506</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H25" t="n">
         <v>1.776561813229859</v>
@@ -32868,7 +32868,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L25" t="n">
         <v>29.7074559238866</v>
@@ -32880,22 +32880,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R25" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U25" t="n">
         <v>0.01089915222840405</v>
@@ -32950,7 +32950,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M26" t="n">
         <v>78.21878833317973</v>
@@ -32959,7 +32959,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P26" t="n">
         <v>64.05763120768638</v>
@@ -32974,7 +32974,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U26" t="n">
         <v>0.03563675904496592</v>
@@ -33020,7 +33020,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I27" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J27" t="n">
         <v>22.51807692967788</v>
@@ -33032,13 +33032,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N27" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P27" t="n">
         <v>45.51283753606219</v>
@@ -33050,10 +33050,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U27" t="n">
         <v>0.01568038410218506</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H28" t="n">
         <v>1.776561813229859</v>
@@ -33105,7 +33105,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L28" t="n">
         <v>29.7074559238866</v>
@@ -33117,22 +33117,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R28" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U28" t="n">
         <v>0.01089915222840405</v>
@@ -33187,7 +33187,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M29" t="n">
         <v>78.21878833317973</v>
@@ -33196,7 +33196,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P29" t="n">
         <v>64.05763120768638</v>
@@ -33211,7 +33211,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U29" t="n">
         <v>0.03563675904496592</v>
@@ -33257,7 +33257,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I30" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J30" t="n">
         <v>22.51807692967788</v>
@@ -33269,13 +33269,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N30" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P30" t="n">
         <v>45.51283753606219</v>
@@ -33287,10 +33287,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U30" t="n">
         <v>0.01568038410218506</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H31" t="n">
         <v>1.776561813229859</v>
@@ -33342,7 +33342,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L31" t="n">
         <v>29.7074559238866</v>
@@ -33354,22 +33354,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R31" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U31" t="n">
         <v>0.01089915222840405</v>
@@ -33424,7 +33424,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M32" t="n">
         <v>78.21878833317973</v>
@@ -33433,7 +33433,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P32" t="n">
         <v>64.05763120768638</v>
@@ -33448,7 +33448,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U32" t="n">
         <v>0.03563675904496592</v>
@@ -33494,7 +33494,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I33" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J33" t="n">
         <v>22.51807692967788</v>
@@ -33506,13 +33506,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N33" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P33" t="n">
         <v>45.51283753606219</v>
@@ -33524,10 +33524,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U33" t="n">
         <v>0.01568038410218506</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H34" t="n">
         <v>1.776561813229859</v>
@@ -33579,7 +33579,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L34" t="n">
         <v>29.7074559238866</v>
@@ -33591,22 +33591,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R34" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U34" t="n">
         <v>0.01089915222840405</v>
@@ -33661,7 +33661,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M35" t="n">
         <v>78.21878833317973</v>
@@ -33670,7 +33670,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P35" t="n">
         <v>64.05763120768638</v>
@@ -33685,7 +33685,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U35" t="n">
         <v>0.03563675904496592</v>
@@ -33731,7 +33731,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I36" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J36" t="n">
         <v>22.51807692967788</v>
@@ -33743,13 +33743,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N36" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P36" t="n">
         <v>45.51283753606219</v>
@@ -33761,10 +33761,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U36" t="n">
         <v>0.01568038410218506</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H37" t="n">
         <v>1.776561813229859</v>
@@ -33816,7 +33816,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L37" t="n">
         <v>29.7074559238866</v>
@@ -33828,22 +33828,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R37" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U37" t="n">
         <v>0.01089915222840405</v>
@@ -33898,7 +33898,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M38" t="n">
         <v>78.21878833317973</v>
@@ -33907,7 +33907,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P38" t="n">
         <v>64.05763120768638</v>
@@ -33922,7 +33922,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U38" t="n">
         <v>0.03563675904496592</v>
@@ -33968,7 +33968,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I39" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J39" t="n">
         <v>22.51807692967788</v>
@@ -33980,13 +33980,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N39" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P39" t="n">
         <v>45.51283753606219</v>
@@ -33998,10 +33998,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U39" t="n">
         <v>0.01568038410218506</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H40" t="n">
         <v>1.776561813229859</v>
@@ -34053,7 +34053,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L40" t="n">
         <v>29.7074559238866</v>
@@ -34065,22 +34065,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R40" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U40" t="n">
         <v>0.01089915222840405</v>
@@ -34135,7 +34135,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M41" t="n">
         <v>78.21878833317973</v>
@@ -34144,7 +34144,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P41" t="n">
         <v>64.05763120768638</v>
@@ -34159,7 +34159,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T41" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U41" t="n">
         <v>0.03563675904496592</v>
@@ -34205,7 +34205,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I42" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J42" t="n">
         <v>22.51807692967788</v>
@@ -34217,13 +34217,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N42" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P42" t="n">
         <v>45.51283753606219</v>
@@ -34235,10 +34235,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U42" t="n">
         <v>0.01568038410218506</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H43" t="n">
         <v>1.776561813229859</v>
@@ -34290,7 +34290,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L43" t="n">
         <v>29.7074559238866</v>
@@ -34302,22 +34302,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R43" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U43" t="n">
         <v>0.01089915222840405</v>
@@ -34372,7 +34372,7 @@
         <v>56.66411735457611</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235583</v>
       </c>
       <c r="M44" t="n">
         <v>78.21878833317973</v>
@@ -34381,7 +34381,7 @@
         <v>79.48445010363611</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921886</v>
       </c>
       <c r="P44" t="n">
         <v>64.05763120768638</v>
@@ -34396,7 +34396,7 @@
         <v>10.15090808421452</v>
       </c>
       <c r="T44" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U44" t="n">
         <v>0.03563675904496592</v>
@@ -34442,7 +34442,7 @@
         <v>2.301880386200766</v>
       </c>
       <c r="I45" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143512</v>
       </c>
       <c r="J45" t="n">
         <v>22.51807692967788</v>
@@ -34454,13 +34454,13 @@
         <v>51.7504943319114</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221536</v>
       </c>
       <c r="N45" t="n">
         <v>61.98873979169809</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608217</v>
       </c>
       <c r="P45" t="n">
         <v>45.51283753606219</v>
@@ -34472,10 +34472,10 @@
         <v>14.79810115670211</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516909</v>
+        <v>4.42709511151691</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938705</v>
       </c>
       <c r="U45" t="n">
         <v>0.01568038410218506</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H46" t="n">
         <v>1.776561813229859</v>
@@ -34527,7 +34527,7 @@
         <v>14.12711781338303</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L46" t="n">
         <v>29.7074559238866</v>
@@ -34539,22 +34539,22 @@
         <v>30.57757157678754</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R46" t="n">
         <v>8.984534486947723</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975088</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.8537669245583158</v>
       </c>
       <c r="U46" t="n">
         <v>0.01089915222840405</v>
@@ -35404,28 +35404,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540026</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>42.89752946584509</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="N11" t="n">
-        <v>46.57575846289164</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="P11" t="n">
-        <v>57.05548430630974</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35434,7 +35434,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.73598032068658</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52.22885684391465</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>52.22885684391421</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.11347102880882</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35562,28 +35562,28 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.16910705312837</v>
       </c>
       <c r="K13" t="n">
-        <v>3.055636024320501</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.62938170224103</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>60.52653654573122</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>58.87461752662941</v>
+        <v>15.82692016264529</v>
       </c>
       <c r="M14" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>49.80658962388639</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.22885684391465</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>52.22885684391421</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35796,28 +35796,28 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.59251376432432</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.16910705312937</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>63.97361927687392</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35878,19 +35878,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.63350978653175</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>43.63661430849643</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="M17" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="U17" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>26.6883387139795</v>
       </c>
       <c r="L20" t="n">
-        <v>48.68523419201482</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="O20" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>68.39702598806987</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36151,10 +36151,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,16 +36349,16 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.94827559451693</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36373,22 +36373,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>68.39702598806988</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>43.63661430849646</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39702598806988</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>26.68833871397957</v>
+        <v>68.39702598806988</v>
       </c>
       <c r="V23" t="n">
         <v>21.99689547803524</v>
@@ -36595,19 +36595,19 @@
         <v>37.14854009034608</v>
       </c>
       <c r="K26" t="n">
-        <v>400.2028599471601</v>
+        <v>63.09163087314868</v>
       </c>
       <c r="L26" t="n">
-        <v>372.2102569223176</v>
+        <v>61.43971185404688</v>
       </c>
       <c r="M26" t="n">
-        <v>74.64632922401742</v>
+        <v>189.2171774753599</v>
       </c>
       <c r="N26" t="n">
-        <v>368.7273523134277</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="O26" t="n">
-        <v>71.72427447050289</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="P26" t="n">
         <v>59.62057863372719</v>
@@ -36616,7 +36616,7 @@
         <v>273.1792742376045</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
         <v>25.3010746481039</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36741,10 +36741,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>53.32534714817462</v>
       </c>
       <c r="H28" t="n">
-        <v>61.15760809174164</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36765,19 +36765,19 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>57.10627184559569</v>
+        <v>114.2633297714196</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>7.410162079016421</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>56.60850510459403</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.139990462981168</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36795,7 +36795,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.266444419660388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281775</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>258.1636583777747</v>
+        <v>82.30317859881796</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>63.09163087314868</v>
       </c>
       <c r="L29" t="n">
-        <v>66.79964750509799</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="M29" t="n">
-        <v>433.3080812606695</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>433.3080812606695</v>
+        <v>331.4228247915112</v>
       </c>
       <c r="O29" t="n">
-        <v>246.7413446963295</v>
+        <v>278.8605123621733</v>
       </c>
       <c r="P29" t="n">
-        <v>59.62057863372722</v>
+        <v>394.2912351320691</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.37168395130372</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
-        <v>25.30107464810392</v>
+        <v>25.3010746481039</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>44.37732844655475</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36978,7 +36978,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.32534714817465</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>111.3217001974005</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>10.22533769635608</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>6.266994585578161</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>114.2633297714196</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>56.60850510459403</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37032,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.266444419660417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.96438733281772</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>258.1636583777747</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>179.1877416597314</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L32" t="n">
-        <v>61.43971185404686</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>74.64632922401742</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N32" t="n">
-        <v>433.3080812606695</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>71.72427447050289</v>
+        <v>371.4486793950894</v>
       </c>
       <c r="P32" t="n">
-        <v>267.0090812691271</v>
+        <v>394.2912351320691</v>
       </c>
       <c r="Q32" t="n">
-        <v>273.1792742376045</v>
+        <v>52.3716839513037</v>
       </c>
       <c r="R32" t="n">
-        <v>38.80131348562908</v>
+        <v>38.80131348562909</v>
       </c>
       <c r="S32" t="n">
         <v>25.3010746481039</v>
@@ -37121,55 +37121,55 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37221,13 +37221,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>73.26563741861841</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.8731920429734</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>62.87549969017218</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>114.2633297714196</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>55.08398553735958</v>
       </c>
       <c r="J35" t="n">
         <v>104.4227768033598</v>
       </c>
       <c r="K35" t="n">
+        <v>85.21122907769055</v>
+      </c>
+      <c r="L35" t="n">
+        <v>115.3225196962989</v>
+      </c>
+      <c r="M35" t="n">
         <v>364.9110552725994</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>96.76592742855928</v>
       </c>
       <c r="N35" t="n">
         <v>364.9110552725994</v>
       </c>
       <c r="O35" t="n">
-        <v>93.84387267504475</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>262.5138605665616</v>
+        <v>81.74017683826905</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.49128215584555</v>
+        <v>74.49128215584557</v>
       </c>
       <c r="R35" t="n">
-        <v>60.92091169017094</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>47.42067285264575</v>
       </c>
       <c r="T35" t="n">
         <v>22.11959820454184</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>6.993807017681434</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>6.993807017681437</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>75.44494535271647</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>22.16361470980685</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>73.34897139500029</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>24.25958866752303</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735958</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>280.2832565823165</v>
@@ -37546,16 +37546,16 @@
         <v>364.9110552725994</v>
       </c>
       <c r="L38" t="n">
-        <v>80.14385534410718</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M38" t="n">
         <v>96.76592742855928</v>
       </c>
       <c r="N38" t="n">
-        <v>98.94142958893042</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="O38" t="n">
-        <v>364.9110552725994</v>
+        <v>93.84387267504476</v>
       </c>
       <c r="P38" t="n">
         <v>81.74017683826905</v>
@@ -37564,7 +37564,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>56.76608773676366</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>6.993807017681437</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37655,7 +37655,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>6.993807017681434</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63.05102500128666</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>10.29794639371362</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>73.34897139500029</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735958</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K41" t="n">
-        <v>85.21122907769053</v>
+        <v>85.21122907769055</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858872</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>15.66223720632109</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="N41" t="n">
-        <v>364.9110552725994</v>
+        <v>98.94142958893042</v>
       </c>
       <c r="O41" t="n">
-        <v>93.84387267504475</v>
+        <v>42.11944409590413</v>
       </c>
       <c r="P41" t="n">
-        <v>261.3929287561579</v>
+        <v>195.0945431149821</v>
       </c>
       <c r="Q41" t="n">
-        <v>74.49128215584555</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R41" t="n">
-        <v>60.92091169017094</v>
+        <v>60.92091169017095</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42067285264575</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>22.11959820454184</v>
@@ -37892,7 +37892,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>6.993807017681434</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -37901,7 +37901,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.993807017681437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>97.60856006252332</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>104.4227768033598</v>
       </c>
       <c r="K44" t="n">
-        <v>364.9110552725994</v>
+        <v>85.21122907769055</v>
       </c>
       <c r="L44" t="n">
-        <v>251.67757269123</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>98.94142958893042</v>
+        <v>293.0289671453056</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>93.84387267504476</v>
       </c>
       <c r="P44" t="n">
         <v>364.9110552725994</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.49128215584555</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017094</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>47.42067285264575</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.993807017681437</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38129,7 +38129,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>6.993807017681434</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.05102500128666</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38187,13 +38187,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.60856006252332</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.55753506123665</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
